--- a/src/main/java/TestSuite/RegressionScenarios.xlsx
+++ b/src/main/java/TestSuite/RegressionScenarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AADTHAKUR\Documents\RStars_Automation\src\main\java\TestSuite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstars\src\main\java\TestSuite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82B974B-EC7F-48E4-B461-50150640C7EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA781DD-5C1F-4822-9129-30E1018003B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="14400" windowHeight="7440" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -524,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B130D1-9A15-4CB4-A42C-CA3AEBC8C272}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -561,7 +561,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -617,7 +617,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">

--- a/src/main/java/TestSuite/RegressionScenarios.xlsx
+++ b/src/main/java/TestSuite/RegressionScenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstars\src\main\java\TestSuite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA781DD-5C1F-4822-9129-30E1018003B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5602DB-DBFF-4C59-9273-CDB3909B821B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="2240" windowWidth="14400" windowHeight="7440" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -524,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B130D1-9A15-4CB4-A42C-CA3AEBC8C272}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -561,7 +561,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -645,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/TestSuite/RegressionScenarios.xlsx
+++ b/src/main/java/TestSuite/RegressionScenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstars\src\main\java\TestSuite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5602DB-DBFF-4C59-9273-CDB3909B821B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA33924-DFB8-4FF8-830A-785A9FC60B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>Scenario Type</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>TS_PM_COA_SEC_AgencyCode1_Regression_001</t>
+  </si>
+  <si>
+    <t>Agency Code 4</t>
+  </si>
+  <si>
+    <t>TS_PM_COA_SEC_AgencyObjectGroupProfile_Regression_001</t>
   </si>
 </sst>
 </file>
@@ -522,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B130D1-9A15-4CB4-A42C-CA3AEBC8C272}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -531,7 +537,7 @@
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44" customWidth="1"/>
+    <col min="2" max="2" width="52.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.36328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -645,6 +651,20 @@
         <v>17</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>5</v>
       </c>
     </row>

--- a/src/main/java/TestSuite/RegressionScenarios.xlsx
+++ b/src/main/java/TestSuite/RegressionScenarios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstars\src\main\java\TestSuite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA33924-DFB8-4FF8-830A-785A9FC60B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BBE0E4-DC4E-43C7-ACC4-8C17226EB9BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>Scenario Type</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>TS_PM_COA_SEC_AgencyObjectGroupProfile_Regression_001</t>
+  </si>
+  <si>
+    <t>TS_PM_COA_SEC_OrganizationCodeProfile_Regression_001</t>
+  </si>
+  <si>
+    <t>OrganizationCodeProfile</t>
   </si>
 </sst>
 </file>
@@ -528,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B130D1-9A15-4CB4-A42C-CA3AEBC8C272}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -556,18 +562,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
+        <v>23</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -575,10 +581,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>7</v>
@@ -589,10 +595,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>7</v>
@@ -603,10 +609,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>7</v>
@@ -617,10 +623,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>7</v>
@@ -631,10 +637,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>7</v>
@@ -645,10 +651,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>7</v>
@@ -659,13 +665,27 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>5</v>
+      <c r="D10" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/TestSuite/RegressionScenarios.xlsx
+++ b/src/main/java/TestSuite/RegressionScenarios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstars\src\main\java\TestSuite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BBE0E4-DC4E-43C7-ACC4-8C17226EB9BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A71C67-B072-4E72-8CC5-AD90A19E901D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -537,7 +537,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -573,7 +573,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -587,7 +587,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">

--- a/src/main/java/TestSuite/RegressionScenarios.xlsx
+++ b/src/main/java/TestSuite/RegressionScenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstars\src\main\java\TestSuite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A71C67-B072-4E72-8CC5-AD90A19E901D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C746C3-48E7-4FBF-B2D9-3667935FB961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
   </bookViews>
@@ -537,7 +537,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/main/java/TestSuite/RegressionScenarios.xlsx
+++ b/src/main/java/TestSuite/RegressionScenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B594E7-C886-44A8-A612-9DD71E33418A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2DF8D7-7147-416D-A201-65CB6D6094DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
+    <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="10180" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
   <si>
     <t>Scenario Type</t>
   </si>
@@ -117,13 +117,40 @@
     <t>GAAP Fund Group Profile</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>TS_SM_FOU_GAAPSourceObjectProfile_Regression_001</t>
   </si>
   <si>
     <t>GAAP Source Object Profile</t>
+  </si>
+  <si>
+    <t>TS_PM_COA_SEC_FundProfile_Regression_001</t>
+  </si>
+  <si>
+    <t>TS_PM_APFA_DebtInvestmentProfile_Regression_001</t>
+  </si>
+  <si>
+    <t>TS_PM_COA_SEC_AgencyGLAccountProfile_Regression_001</t>
+  </si>
+  <si>
+    <t>TS_PM_COA_SEC_AgencyObjectProfile_Regression_001</t>
+  </si>
+  <si>
+    <t>TS_PM_COA_SEC_ProgramCodeProfile_Regression_001</t>
+  </si>
+  <si>
+    <t>Fund Profile</t>
+  </si>
+  <si>
+    <t>Debt Investment Profile</t>
+  </si>
+  <si>
+    <t>Agency GL Accout Profile</t>
+  </si>
+  <si>
+    <t>Agency Object Profile</t>
+  </si>
+  <si>
+    <t>Program Code Profile</t>
   </si>
 </sst>
 </file>
@@ -159,7 +186,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,8 +199,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -191,19 +230,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -231,10 +257,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B130D1-9A15-4CB4-A42C-CA3AEBC8C272}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -577,160 +601,235 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
+      <c r="D17" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/java/TestSuite/RegressionScenarios.xlsx
+++ b/src/main/java/TestSuite/RegressionScenarios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2DF8D7-7147-416D-A201-65CB6D6094DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D76689-7758-400E-9A09-AB22F90A9382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="10180" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -576,7 +576,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -682,7 +682,7 @@
         <v>38</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -738,7 +738,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">

--- a/src/main/java/TestSuite/RegressionScenarios.xlsx
+++ b/src/main/java/TestSuite/RegressionScenarios.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D76689-7758-400E-9A09-AB22F90A9382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6473558-74EF-4EB8-BC0D-20AA764C0AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
   <si>
     <t>Scenario Type</t>
   </si>
@@ -151,6 +151,21 @@
   </si>
   <si>
     <t>Program Code Profile</t>
+  </si>
+  <si>
+    <t>getData=ComptrollerObj</t>
+  </si>
+  <si>
+    <t>dropdown_comptrollerObject_Opt_aop</t>
+  </si>
+  <si>
+    <t>jsClick</t>
+  </si>
+  <si>
+    <t>getData=WaitForPageLoad</t>
+  </si>
+  <si>
+    <t>dropdown_comptrollerObject_aop</t>
   </si>
 </sst>
 </file>
@@ -250,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -259,6 +274,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,7 +592,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -654,7 +670,7 @@
         <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -675,7 +691,7 @@
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -738,7 +754,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -826,8 +842,28 @@
       </c>
     </row>
     <row r="18" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="21" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>

--- a/src/main/java/TestSuite/RegressionScenarios.xlsx
+++ b/src/main/java/TestSuite/RegressionScenarios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6473558-74EF-4EB8-BC0D-20AA764C0AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA7CE92-8425-42CD-A27A-B124ED6F72DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
+    <workbookView xWindow="1010" yWindow="270" windowWidth="18780" windowHeight="9910" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
   <si>
     <t>Scenario Type</t>
   </si>
@@ -151,21 +151,6 @@
   </si>
   <si>
     <t>Program Code Profile</t>
-  </si>
-  <si>
-    <t>getData=ComptrollerObj</t>
-  </si>
-  <si>
-    <t>dropdown_comptrollerObject_Opt_aop</t>
-  </si>
-  <si>
-    <t>jsClick</t>
-  </si>
-  <si>
-    <t>getData=WaitForPageLoad</t>
-  </si>
-  <si>
-    <t>dropdown_comptrollerObject_aop</t>
   </si>
 </sst>
 </file>
@@ -592,7 +577,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -670,7 +655,7 @@
         <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -768,7 +753,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -843,26 +828,14 @@
     </row>
     <row r="18" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35"/>

--- a/src/main/java/TestSuite/RegressionScenarios.xlsx
+++ b/src/main/java/TestSuite/RegressionScenarios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA7CE92-8425-42CD-A27A-B124ED6F72DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99FBF5A-677D-46C5-B71A-12C39BD79481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1010" yWindow="270" windowWidth="18780" windowHeight="9910" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
   <si>
     <t>Scenario Type</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>Program Code Profile</t>
+  </si>
+  <si>
+    <t>TS_SM_COA_AppropriationNumberProfile_Regression_01</t>
+  </si>
+  <si>
+    <t>Appropriation Number Profile</t>
   </si>
 </sst>
 </file>
@@ -574,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B130D1-9A15-4CB4-A42C-CA3AEBC8C272}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -630,102 +636,102 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="D8" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>7</v>
+      <c r="D9" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -733,10 +739,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>7</v>
@@ -747,13 +753,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -761,10 +767,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>7</v>
@@ -775,10 +781,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>7</v>
@@ -789,10 +795,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>7</v>
@@ -803,10 +809,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>7</v>
@@ -817,28 +823,42 @@
         <v>4</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-    </row>
+      <c r="D18" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+    </row>
     <row r="22" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/java/TestSuite/RegressionScenarios.xlsx
+++ b/src/main/java/TestSuite/RegressionScenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99FBF5A-677D-46C5-B71A-12C39BD79481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCCF329-24B1-42B7-83CE-203985EF2C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -256,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -264,7 +264,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -583,7 +582,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -612,7 +611,7 @@
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -626,14 +625,14 @@
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -731,7 +730,7 @@
         <v>40</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -848,14 +847,14 @@
     </row>
     <row r="19" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35"/>

--- a/src/main/java/TestSuite/RegressionScenarios.xlsx
+++ b/src/main/java/TestSuite/RegressionScenarios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99FBF5A-677D-46C5-B71A-12C39BD79481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DBEE86-8156-41F3-A83B-0AFD5750588D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
   <si>
     <t>Scenario Type</t>
   </si>
@@ -157,6 +157,21 @@
   </si>
   <si>
     <t>Appropriation Number Profile</t>
+  </si>
+  <si>
+    <t>TS_SM_COA_ComptrollerObjectProfile_Regression_01</t>
+  </si>
+  <si>
+    <t>Comptroller Object Profile</t>
+  </si>
+  <si>
+    <t>bug</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>z11security working</t>
   </si>
 </sst>
 </file>
@@ -580,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B130D1-9A15-4CB4-A42C-CA3AEBC8C272}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -594,7 +609,7 @@
     <col min="4" max="4" width="7.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -608,7 +623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -622,7 +637,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -636,7 +651,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -650,7 +665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -664,7 +679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -678,7 +693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -692,7 +707,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -706,7 +721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
@@ -720,7 +735,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -731,10 +746,10 @@
         <v>40</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
@@ -747,8 +762,11 @@
       <c r="D11" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E11" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
@@ -761,8 +779,11 @@
       <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E12" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
@@ -773,10 +794,13 @@
         <v>14</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
@@ -789,8 +813,11 @@
       <c r="D14" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E14" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
@@ -803,8 +830,11 @@
       <c r="D15" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E15" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
@@ -817,8 +847,11 @@
       <c r="D16" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E16" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
@@ -831,8 +864,11 @@
       <c r="D17" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E17" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
@@ -845,20 +881,36 @@
       <c r="D18" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E18" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/java/TestSuite/RegressionScenarios.xlsx
+++ b/src/main/java/TestSuite/RegressionScenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DBEE86-8156-41F3-A83B-0AFD5750588D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1821D9-CD8C-4F7E-991F-F525082D42B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
+    <workbookView xWindow="420" yWindow="290" windowWidth="18780" windowHeight="9910" xr2:uid="{25BA6363-D021-4585-A3A2-80239D66B0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
   <si>
     <t>Scenario Type</t>
   </si>
@@ -165,13 +165,10 @@
     <t>Comptroller Object Profile</t>
   </si>
   <si>
-    <t>bug</t>
-  </si>
-  <si>
-    <t>working</t>
-  </si>
-  <si>
-    <t>z11security working</t>
+    <t>TS_SM_FOU_ComptrollerSourceGroupProfile_Regression_001</t>
+  </si>
+  <si>
+    <t>ComptrollerSourceGroupProfile</t>
   </si>
 </sst>
 </file>
@@ -595,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B130D1-9A15-4CB4-A42C-CA3AEBC8C272}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -609,7 +606,7 @@
     <col min="4" max="4" width="7.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -623,7 +620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -637,7 +634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -651,7 +648,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -665,7 +662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -679,7 +676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -693,7 +690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -707,7 +704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -721,7 +718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
@@ -735,7 +732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -749,7 +746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
@@ -762,11 +759,8 @@
       <c r="D11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
@@ -779,11 +773,8 @@
       <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
@@ -794,13 +785,10 @@
         <v>14</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
@@ -813,11 +801,8 @@
       <c r="D14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
@@ -830,11 +815,8 @@
       <c r="D15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
@@ -847,11 +829,8 @@
       <c r="D16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
@@ -864,11 +843,8 @@
       <c r="D17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
@@ -881,11 +857,8 @@
       <c r="D18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
@@ -899,18 +872,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
